--- a/ig/update_page_content/StructureDefinition-ror-location.xlsx
+++ b/ig/update_page_content/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T13:27:34+00:00</t>
+    <t>2023-04-11T20:07:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/update_page_content/StructureDefinition-ror-location.xlsx
+++ b/ig/update_page_content/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T20:07:33+00:00</t>
+    <t>2023-04-12T10:17:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
